--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Lrpap1-Lrp8.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Lrpap1-Lrp8.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.191447666666667</v>
+        <v>7.892066666666667</v>
       </c>
       <c r="H2">
-        <v>24.574343</v>
+        <v>23.6762</v>
       </c>
       <c r="I2">
-        <v>0.185794284429433</v>
+        <v>0.1739002798877711</v>
       </c>
       <c r="J2">
-        <v>0.185794284429433</v>
+        <v>0.1739002798877711</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -555,28 +555,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>1.359321</v>
+        <v>0.4394373333333333</v>
       </c>
       <c r="N2">
-        <v>4.077963</v>
+        <v>1.318312</v>
       </c>
       <c r="O2">
-        <v>0.5129683551755682</v>
+        <v>0.2944741752765458</v>
       </c>
       <c r="P2">
-        <v>0.5129683551755682</v>
+        <v>0.2944741752765458</v>
       </c>
       <c r="Q2">
-        <v>11.134806833701</v>
+        <v>3.468068730488889</v>
       </c>
       <c r="R2">
-        <v>100.213261503309</v>
+        <v>31.2126185744</v>
       </c>
       <c r="S2">
-        <v>0.09530658848478792</v>
+        <v>0.05120914150031188</v>
       </c>
       <c r="T2">
-        <v>0.09530658848478792</v>
+        <v>0.05120914150031188</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.191447666666667</v>
+        <v>7.892066666666667</v>
       </c>
       <c r="H3">
-        <v>24.574343</v>
+        <v>23.6762</v>
       </c>
       <c r="I3">
-        <v>0.185794284429433</v>
+        <v>0.1739002798877711</v>
       </c>
       <c r="J3">
-        <v>0.185794284429433</v>
+        <v>0.1739002798877711</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>1.951025</v>
       </c>
       <c r="O3">
-        <v>0.2454200994850647</v>
+        <v>0.4358046333636673</v>
       </c>
       <c r="P3">
-        <v>0.2454200994850647</v>
+        <v>0.4358046333636673</v>
       </c>
       <c r="Q3">
-        <v>5.327239727952779</v>
+        <v>5.132539789444445</v>
       </c>
       <c r="R3">
-        <v>47.94515755157501</v>
+        <v>46.19285810500001</v>
       </c>
       <c r="S3">
-        <v>0.04559765176842785</v>
+        <v>0.0757865477183292</v>
       </c>
       <c r="T3">
-        <v>0.04559765176842785</v>
+        <v>0.0757865477183292</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,46 +661,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.191447666666667</v>
+        <v>7.892066666666667</v>
       </c>
       <c r="H4">
-        <v>24.574343</v>
+        <v>23.6762</v>
       </c>
       <c r="I4">
-        <v>0.185794284429433</v>
+        <v>0.1739002798877711</v>
       </c>
       <c r="J4">
-        <v>0.185794284429433</v>
+        <v>0.1739002798877711</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.197154</v>
+        <v>0.1607546666666667</v>
       </c>
       <c r="N4">
-        <v>0.591462</v>
+        <v>0.482264</v>
       </c>
       <c r="O4">
-        <v>0.07440020649742332</v>
+        <v>0.1077243426939663</v>
       </c>
       <c r="P4">
-        <v>0.07440020649742332</v>
+        <v>0.1077243426939663</v>
       </c>
       <c r="Q4">
-        <v>1.614976673274</v>
+        <v>1.268686546311111</v>
       </c>
       <c r="R4">
-        <v>14.534790059466</v>
+        <v>11.4181789168</v>
       </c>
       <c r="S4">
-        <v>0.01382313312759082</v>
+        <v>0.01873329334520691</v>
       </c>
       <c r="T4">
-        <v>0.01382313312759082</v>
+        <v>0.01873329334520691</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>8.191447666666667</v>
+        <v>7.892066666666667</v>
       </c>
       <c r="H5">
-        <v>24.574343</v>
+        <v>23.6762</v>
       </c>
       <c r="I5">
-        <v>0.185794284429433</v>
+        <v>0.1739002798877711</v>
       </c>
       <c r="J5">
-        <v>0.185794284429433</v>
+        <v>0.1739002798877711</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.4430953333333333</v>
+        <v>0.2417443333333333</v>
       </c>
       <c r="N5">
-        <v>1.329286</v>
+        <v>0.725233</v>
       </c>
       <c r="O5">
-        <v>0.1672113388419439</v>
+        <v>0.1619968486658205</v>
       </c>
       <c r="P5">
-        <v>0.1672113388419439</v>
+        <v>0.1619968486658205</v>
       </c>
       <c r="Q5">
-        <v>3.629592234344222</v>
+        <v>1.907862394955556</v>
       </c>
       <c r="R5">
-        <v>32.66633010909801</v>
+        <v>17.1707615546</v>
       </c>
       <c r="S5">
-        <v>0.03106691104862643</v>
+        <v>0.02817129732392308</v>
       </c>
       <c r="T5">
-        <v>0.03106691104862643</v>
+        <v>0.02817129732392308</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>51.95310600000001</v>
       </c>
       <c r="I6">
-        <v>0.3927913821808576</v>
+        <v>0.3815924715300191</v>
       </c>
       <c r="J6">
-        <v>0.3927913821808576</v>
+        <v>0.3815924715300191</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -803,28 +803,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>1.359321</v>
+        <v>0.4394373333333333</v>
       </c>
       <c r="N6">
-        <v>4.077963</v>
+        <v>1.318312</v>
       </c>
       <c r="O6">
-        <v>0.5129683551755682</v>
+        <v>0.2944741752765458</v>
       </c>
       <c r="P6">
-        <v>0.5129683551755682</v>
+        <v>0.2944741752765458</v>
       </c>
       <c r="Q6">
-        <v>23.54031600034201</v>
+        <v>7.610044786341333</v>
       </c>
       <c r="R6">
-        <v>211.862844003078</v>
+        <v>68.490403077072</v>
       </c>
       <c r="S6">
-        <v>0.2014895492444525</v>
+        <v>0.1123691283455412</v>
       </c>
       <c r="T6">
-        <v>0.2014895492444525</v>
+        <v>0.1123691283455412</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>51.95310600000001</v>
       </c>
       <c r="I7">
-        <v>0.3927913821808576</v>
+        <v>0.3815924715300191</v>
       </c>
       <c r="J7">
-        <v>0.3927913821808576</v>
+        <v>0.3815924715300191</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>1.951025</v>
       </c>
       <c r="O7">
-        <v>0.2454200994850647</v>
+        <v>0.4358046333636673</v>
       </c>
       <c r="P7">
-        <v>0.2454200994850647</v>
+        <v>0.4358046333636673</v>
       </c>
       <c r="Q7">
         <v>11.26242318151667</v>
@@ -883,10 +883,10 @@
         <v>101.36180863365</v>
       </c>
       <c r="S7">
-        <v>0.09639890009170213</v>
+        <v>0.1662997671494756</v>
       </c>
       <c r="T7">
-        <v>0.09639890009170213</v>
+        <v>0.1662997671494756</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,40 +915,40 @@
         <v>51.95310600000001</v>
       </c>
       <c r="I8">
-        <v>0.3927913821808576</v>
+        <v>0.3815924715300191</v>
       </c>
       <c r="J8">
-        <v>0.3927913821808576</v>
+        <v>0.3815924715300191</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.197154</v>
+        <v>0.1607546666666667</v>
       </c>
       <c r="N8">
-        <v>0.591462</v>
+        <v>0.482264</v>
       </c>
       <c r="O8">
-        <v>0.07440020649742332</v>
+        <v>0.1077243426939663</v>
       </c>
       <c r="P8">
-        <v>0.07440020649742332</v>
+        <v>0.1077243426939663</v>
       </c>
       <c r="Q8">
-        <v>3.414254220108</v>
+        <v>2.783901412442667</v>
       </c>
       <c r="R8">
-        <v>30.72828798097201</v>
+        <v>25.05511271198401</v>
       </c>
       <c r="S8">
-        <v>0.02922375994466413</v>
+        <v>0.04110679817253737</v>
       </c>
       <c r="T8">
-        <v>0.02922375994466413</v>
+        <v>0.04110679817253737</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>51.95310600000001</v>
       </c>
       <c r="I9">
-        <v>0.3927913821808576</v>
+        <v>0.3815924715300191</v>
       </c>
       <c r="J9">
-        <v>0.3927913821808576</v>
+        <v>0.3815924715300191</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.4430953333333333</v>
+        <v>0.2417443333333333</v>
       </c>
       <c r="N9">
-        <v>1.329286</v>
+        <v>0.725233</v>
       </c>
       <c r="O9">
-        <v>0.1672113388419439</v>
+        <v>0.1619968486658205</v>
       </c>
       <c r="P9">
-        <v>0.1672113388419439</v>
+        <v>0.1619968486658205</v>
       </c>
       <c r="Q9">
-        <v>7.673392940257334</v>
+        <v>4.186456324855333</v>
       </c>
       <c r="R9">
-        <v>69.06053646231601</v>
+        <v>37.678106923698</v>
       </c>
       <c r="S9">
-        <v>0.06567917290003888</v>
+        <v>0.06181677786246493</v>
       </c>
       <c r="T9">
-        <v>0.06567917290003888</v>
+        <v>0.06181677786246494</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>6.228371</v>
+        <v>7.716272666666666</v>
       </c>
       <c r="H10">
-        <v>18.685113</v>
+        <v>23.148818</v>
       </c>
       <c r="I10">
-        <v>0.1412687695991749</v>
+        <v>0.1700266904854272</v>
       </c>
       <c r="J10">
-        <v>0.1412687695991749</v>
+        <v>0.1700266904854272</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1051,28 +1051,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>1.359321</v>
+        <v>0.4394373333333333</v>
       </c>
       <c r="N10">
-        <v>4.077963</v>
+        <v>1.318312</v>
       </c>
       <c r="O10">
-        <v>0.5129683551755682</v>
+        <v>0.2944741752765458</v>
       </c>
       <c r="P10">
-        <v>0.5129683551755682</v>
+        <v>0.2944741752765458</v>
       </c>
       <c r="Q10">
-        <v>8.466355496091001</v>
+        <v>3.390818283912888</v>
       </c>
       <c r="R10">
-        <v>76.19719946481901</v>
+        <v>30.51736455521599</v>
       </c>
       <c r="S10">
-        <v>0.07246640837896505</v>
+        <v>0.0500684694556967</v>
       </c>
       <c r="T10">
-        <v>0.07246640837896504</v>
+        <v>0.05006846945569671</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>6.228371</v>
+        <v>7.716272666666666</v>
       </c>
       <c r="H11">
-        <v>18.685113</v>
+        <v>23.148818</v>
       </c>
       <c r="I11">
-        <v>0.1412687695991749</v>
+        <v>0.1700266904854272</v>
       </c>
       <c r="J11">
-        <v>0.1412687695991749</v>
+        <v>0.1700266904854272</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>1.951025</v>
       </c>
       <c r="O11">
-        <v>0.2454200994850647</v>
+        <v>0.4358046333636673</v>
       </c>
       <c r="P11">
-        <v>0.2454200994850647</v>
+        <v>0.4358046333636673</v>
       </c>
       <c r="Q11">
-        <v>4.050569176758334</v>
+        <v>5.018213626494444</v>
       </c>
       <c r="R11">
-        <v>36.455122590825</v>
+        <v>45.16392263845</v>
       </c>
       <c r="S11">
-        <v>0.03467019548916218</v>
+        <v>0.07409841950903935</v>
       </c>
       <c r="T11">
-        <v>0.03467019548916218</v>
+        <v>0.07409841950903935</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,46 +1157,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>6.228371</v>
+        <v>7.716272666666666</v>
       </c>
       <c r="H12">
-        <v>18.685113</v>
+        <v>23.148818</v>
       </c>
       <c r="I12">
-        <v>0.1412687695991749</v>
+        <v>0.1700266904854272</v>
       </c>
       <c r="J12">
-        <v>0.1412687695991749</v>
+        <v>0.1700266904854272</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.197154</v>
+        <v>0.1607546666666667</v>
       </c>
       <c r="N12">
-        <v>0.591462</v>
+        <v>0.482264</v>
       </c>
       <c r="O12">
-        <v>0.07440020649742332</v>
+        <v>0.1077243426939663</v>
       </c>
       <c r="P12">
-        <v>0.07440020649742332</v>
+        <v>0.1077243426939663</v>
       </c>
       <c r="Q12">
-        <v>1.227948256134</v>
+        <v>1.240426840439111</v>
       </c>
       <c r="R12">
-        <v>11.051534305206</v>
+        <v>11.163841563952</v>
       </c>
       <c r="S12">
-        <v>0.01051042562981553</v>
+        <v>0.0183160134729731</v>
       </c>
       <c r="T12">
-        <v>0.01051042562981553</v>
+        <v>0.0183160134729731</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>6.228371</v>
+        <v>7.716272666666666</v>
       </c>
       <c r="H13">
-        <v>18.685113</v>
+        <v>23.148818</v>
       </c>
       <c r="I13">
-        <v>0.1412687695991749</v>
+        <v>0.1700266904854272</v>
       </c>
       <c r="J13">
-        <v>0.1412687695991749</v>
+        <v>0.1700266904854272</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.4430953333333333</v>
+        <v>0.2417443333333333</v>
       </c>
       <c r="N13">
-        <v>1.329286</v>
+        <v>0.725233</v>
       </c>
       <c r="O13">
-        <v>0.1672113388419439</v>
+        <v>0.1619968486658205</v>
       </c>
       <c r="P13">
-        <v>0.1672113388419439</v>
+        <v>0.1619968486658205</v>
       </c>
       <c r="Q13">
-        <v>2.759762124368667</v>
+        <v>1.865365191621555</v>
       </c>
       <c r="R13">
-        <v>24.837859119318</v>
+        <v>16.788286724594</v>
       </c>
       <c r="S13">
-        <v>0.02362174010123214</v>
+        <v>0.02754378804771806</v>
       </c>
       <c r="T13">
-        <v>0.02362174010123214</v>
+        <v>0.02754378804771807</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>12.35128266666667</v>
+        <v>12.45667266666667</v>
       </c>
       <c r="H14">
-        <v>37.053848</v>
+        <v>37.370018</v>
       </c>
       <c r="I14">
-        <v>0.2801455637905346</v>
+        <v>0.2744805580967825</v>
       </c>
       <c r="J14">
-        <v>0.2801455637905346</v>
+        <v>0.2744805580967826</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1299,28 +1299,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>1.359321</v>
+        <v>0.4394373333333333</v>
       </c>
       <c r="N14">
-        <v>4.077963</v>
+        <v>1.318312</v>
       </c>
       <c r="O14">
-        <v>0.5129683551755682</v>
+        <v>0.2944741752765458</v>
       </c>
       <c r="P14">
-        <v>0.5129683551755682</v>
+        <v>0.2944741752765458</v>
       </c>
       <c r="Q14">
-        <v>16.789357905736</v>
+        <v>5.473927018846222</v>
       </c>
       <c r="R14">
-        <v>151.104221151624</v>
+        <v>49.265343169616</v>
       </c>
       <c r="S14">
-        <v>0.1437058090673627</v>
+        <v>0.08082743597499606</v>
       </c>
       <c r="T14">
-        <v>0.1437058090673627</v>
+        <v>0.08082743597499607</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>12.35128266666667</v>
+        <v>12.45667266666667</v>
       </c>
       <c r="H15">
-        <v>37.053848</v>
+        <v>37.370018</v>
       </c>
       <c r="I15">
-        <v>0.2801455637905346</v>
+        <v>0.2744805580967825</v>
       </c>
       <c r="J15">
-        <v>0.2801455637905346</v>
+        <v>0.2744805580967826</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>1.951025</v>
       </c>
       <c r="O15">
-        <v>0.2454200994850647</v>
+        <v>0.4358046333636673</v>
       </c>
       <c r="P15">
-        <v>0.2454200994850647</v>
+        <v>0.4358046333636673</v>
       </c>
       <c r="Q15">
-        <v>8.032553754911113</v>
+        <v>8.101093263161113</v>
       </c>
       <c r="R15">
-        <v>72.2929837942</v>
+        <v>72.90983936845001</v>
       </c>
       <c r="S15">
-        <v>0.06875335213577254</v>
+        <v>0.1196198989868231</v>
       </c>
       <c r="T15">
-        <v>0.06875335213577254</v>
+        <v>0.1196198989868231</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,46 +1405,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>12.35128266666667</v>
+        <v>12.45667266666667</v>
       </c>
       <c r="H16">
-        <v>37.053848</v>
+        <v>37.370018</v>
       </c>
       <c r="I16">
-        <v>0.2801455637905346</v>
+        <v>0.2744805580967825</v>
       </c>
       <c r="J16">
-        <v>0.2801455637905346</v>
+        <v>0.2744805580967826</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.197154</v>
+        <v>0.1607546666666667</v>
       </c>
       <c r="N16">
-        <v>0.591462</v>
+        <v>0.482264</v>
       </c>
       <c r="O16">
-        <v>0.07440020649742332</v>
+        <v>0.1077243426939663</v>
       </c>
       <c r="P16">
-        <v>0.07440020649742332</v>
+        <v>0.1077243426939663</v>
       </c>
       <c r="Q16">
-        <v>2.435104782864001</v>
+        <v>2.002468262305778</v>
       </c>
       <c r="R16">
-        <v>21.915943045776</v>
+        <v>18.022214360752</v>
       </c>
       <c r="S16">
-        <v>0.02084288779535285</v>
+        <v>0.02956823770324894</v>
       </c>
       <c r="T16">
-        <v>0.02084288779535285</v>
+        <v>0.02956823770324894</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>12.35128266666667</v>
+        <v>12.45667266666667</v>
       </c>
       <c r="H17">
-        <v>37.053848</v>
+        <v>37.370018</v>
       </c>
       <c r="I17">
-        <v>0.2801455637905346</v>
+        <v>0.2744805580967825</v>
       </c>
       <c r="J17">
-        <v>0.2801455637905346</v>
+        <v>0.2744805580967826</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.4430953333333333</v>
+        <v>0.2417443333333333</v>
       </c>
       <c r="N17">
-        <v>1.329286</v>
+        <v>0.725233</v>
       </c>
       <c r="O17">
-        <v>0.1672113388419439</v>
+        <v>0.1619968486658205</v>
       </c>
       <c r="P17">
-        <v>0.1672113388419439</v>
+        <v>0.1619968486658205</v>
       </c>
       <c r="Q17">
-        <v>5.47279571028089</v>
+        <v>3.011330029354889</v>
       </c>
       <c r="R17">
-        <v>49.255161392528</v>
+        <v>27.101970264194</v>
       </c>
       <c r="S17">
-        <v>0.04684351479204651</v>
+        <v>0.04446498543171444</v>
       </c>
       <c r="T17">
-        <v>0.0468435147920465</v>
+        <v>0.04446498543171445</v>
       </c>
     </row>
   </sheetData>
